--- a/ESYS/Wirtschaftliche_Bewertung - Copy.xlsx
+++ b/ESYS/Wirtschaftliche_Bewertung - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariu\source\repos\Esys\ESYS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB612F4F-E927-405C-82C6-F267385E1688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E118A062-9321-4CB9-904E-6BBBEA3D2827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="32">
   <si>
     <t>Investkosten</t>
   </si>
@@ -173,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -196,6 +196,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -203,7 +216,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -220,6 +233,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -230,10 +247,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -8794,8 +8809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8812,6 +8827,8 @@
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -8858,7 +8875,7 @@
       </c>
     </row>
     <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="8">
@@ -8897,7 +8914,7 @@
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -8934,7 +8951,7 @@
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="8">
         <v>3</v>
       </c>
@@ -8987,7 +9004,7 @@
       </c>
     </row>
     <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="8">
@@ -9043,7 +9060,7 @@
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="8">
         <v>5</v>
       </c>
@@ -9108,7 +9125,7 @@
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="8">
         <v>6</v>
       </c>
@@ -9145,7 +9162,7 @@
       </c>
     </row>
     <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="8">
@@ -9184,7 +9201,7 @@
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="8">
         <v>8</v>
       </c>
@@ -9221,7 +9238,7 @@
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="8">
         <v>9</v>
       </c>
@@ -9258,14 +9275,14 @@
       </c>
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
-      <c r="Y11" s="16" t="s">
+      <c r="Y11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16" t="s">
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AB11" s="16"/>
+      <c r="AB11" s="18"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L12" s="9"/>
@@ -9289,13 +9306,13 @@
       <c r="AB12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AE12" s="17" t="s">
+      <c r="AE12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AF12" s="17"/>
+      <c r="AF12" s="19"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
@@ -9364,7 +9381,7 @@
       </c>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
-      <c r="W13" s="14" t="s">
+      <c r="W13" s="16" t="s">
         <v>13</v>
       </c>
       <c r="X13" s="11" t="s">
@@ -9394,7 +9411,7 @@
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="15"/>
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -9453,7 +9470,7 @@
       </c>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
-      <c r="W14" s="15"/>
+      <c r="W14" s="17"/>
       <c r="X14" s="11" t="s">
         <v>15</v>
       </c>
@@ -9477,7 +9494,7 @@
       <c r="AG14" s="10"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="15"/>
       <c r="B15" t="s">
         <v>16</v>
       </c>
@@ -9536,7 +9553,7 @@
       </c>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
-      <c r="W15" s="15"/>
+      <c r="W15" s="17"/>
       <c r="X15" s="11" t="s">
         <v>16</v>
       </c>
@@ -9570,7 +9587,7 @@
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
@@ -9639,7 +9656,7 @@
       </c>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
-      <c r="W16" s="14" t="s">
+      <c r="W16" s="16" t="s">
         <v>17</v>
       </c>
       <c r="X16" s="11" t="s">
@@ -9665,7 +9682,7 @@
       <c r="AG16" s="10"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="15"/>
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -9724,7 +9741,7 @@
       </c>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
-      <c r="W17" s="15"/>
+      <c r="W17" s="17"/>
       <c r="X17" s="11" t="s">
         <v>15</v>
       </c>
@@ -9748,7 +9765,7 @@
       <c r="AG17" s="10"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="15"/>
       <c r="B18" t="s">
         <v>16</v>
       </c>
@@ -9807,7 +9824,7 @@
       </c>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
-      <c r="W18" s="15"/>
+      <c r="W18" s="17"/>
       <c r="X18" s="11" t="s">
         <v>16</v>
       </c>
@@ -9841,7 +9858,7 @@
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -9910,7 +9927,7 @@
       </c>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
-      <c r="W19" s="14" t="s">
+      <c r="W19" s="16" t="s">
         <v>18</v>
       </c>
       <c r="X19" s="11" t="s">
@@ -9936,7 +9953,7 @@
       <c r="AG19" s="10"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="15"/>
       <c r="B20" t="s">
         <v>15</v>
       </c>
@@ -9995,7 +10012,7 @@
       </c>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
-      <c r="W20" s="15"/>
+      <c r="W20" s="17"/>
       <c r="X20" s="11" t="s">
         <v>15</v>
       </c>
@@ -10019,7 +10036,7 @@
       <c r="AG20" s="10"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="15"/>
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -10078,7 +10095,7 @@
       </c>
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
-      <c r="W21" s="15"/>
+      <c r="W21" s="17"/>
       <c r="X21" s="11" t="s">
         <v>16</v>
       </c>
@@ -10121,52 +10138,62 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="Y25" s="7"/>
-      <c r="AA25" t="s">
+      <c r="AA25" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AB25" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AC25" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
+      <c r="Z26" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA26" s="12">
+        <v>112.27905974003386</v>
+      </c>
+      <c r="AB26" s="21">
+        <f>AB14/Y14</f>
+        <v>0.14130710423731629</v>
+      </c>
+      <c r="AC26" s="21">
+        <f>AB14/Z14</f>
+        <v>0.20391557140224317</v>
+      </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AA27">
-        <v>112.27905974003386</v>
-      </c>
-      <c r="AB27" s="10">
-        <f t="shared" ref="AB27:AB33" si="15">AB14/Y14</f>
-        <v>0.14130710423731629</v>
-      </c>
-      <c r="AC27" s="10">
-        <f t="shared" ref="AC27:AC33" si="16">AB14/Z14</f>
-        <v>0.20391557140224317</v>
+      <c r="Z27" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA27" s="12">
+        <v>293.79687298642204</v>
+      </c>
+      <c r="AB27" s="21">
+        <f>AB17/Y17</f>
+        <v>0.10476351700261037</v>
+      </c>
+      <c r="AC27" s="21">
+        <f>AB17/Z17</f>
+        <v>0.15118073890905201</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="10"/>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AA30">
-        <v>293.79687298642204</v>
-      </c>
-      <c r="AB30" s="10">
-        <f t="shared" si="15"/>
-        <v>0.10476351700261037</v>
-      </c>
-      <c r="AC30" s="10">
-        <f t="shared" si="16"/>
-        <v>0.15118073890905201</v>
+      <c r="Z28" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA28" s="12">
+        <v>177.77517792172</v>
+      </c>
+      <c r="AB28" s="21">
+        <f>AB20/Y20</f>
+        <v>0.12678387407959194</v>
+      </c>
+      <c r="AC28" s="21">
+        <f>AB20/Z20</f>
+        <v>0.18295758211923457</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
@@ -10177,41 +10204,28 @@
       <c r="AB32" s="10"/>
       <c r="AC32" s="10"/>
     </row>
-    <row r="33" spans="27:29" x14ac:dyDescent="0.25">
-      <c r="AA33">
-        <v>177.77517792172</v>
-      </c>
-      <c r="AB33" s="10">
-        <f t="shared" si="15"/>
-        <v>0.12678387407959194</v>
-      </c>
-      <c r="AC33" s="10">
-        <f t="shared" si="16"/>
-        <v>0.18295758211923457</v>
-      </c>
-    </row>
-    <row r="34" spans="27:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="28:29" x14ac:dyDescent="0.25">
       <c r="AB34" s="10"/>
       <c r="AC34" s="10"/>
     </row>
-    <row r="35" spans="27:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="28:29" x14ac:dyDescent="0.25">
       <c r="AB35" s="10"/>
       <c r="AC35" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="W19:W21"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="W13:W15"/>
+    <mergeCell ref="W16:W18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="W19:W21"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="W13:W15"/>
-    <mergeCell ref="W16:W18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
